--- a/material resistance.xlsx
+++ b/material resistance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Sod</t>
   </si>
@@ -56,24 +56,9 @@
     <t>Steel</t>
   </si>
   <si>
-    <t>All numbers are relative resistance on scale of 1 being lowest resistance and 10 being maximum resistance</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
-    <t>Block Damage Resistance</t>
-  </si>
-  <si>
-    <t>Fire Damage Resistance</t>
-  </si>
-  <si>
-    <t>Acid Damage Resistance</t>
-  </si>
-  <si>
-    <t>Explosion Damage Resistance</t>
-  </si>
-  <si>
     <t>Flagstone is just piled stones with no binding material</t>
   </si>
   <si>
@@ -87,6 +72,39 @@
   </si>
   <si>
     <t>Stainless Steel</t>
+  </si>
+  <si>
+    <t>Block Damage</t>
+  </si>
+  <si>
+    <t>Fire Damage</t>
+  </si>
+  <si>
+    <t>Acid Damage</t>
+  </si>
+  <si>
+    <t>Explosion Damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All numbers are multipliers </t>
+  </si>
+  <si>
+    <t>This assumes Jeo's material damage function (zombie armor) is working</t>
+  </si>
+  <si>
+    <t>Examples:</t>
+  </si>
+  <si>
+    <t>&lt;property name="DamageBonus.Msod" value="10"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="DamageBonus.Msandbag" value="10"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="DamageBonus.Msod" value="1"/&gt;</t>
+  </si>
+  <si>
+    <t>&lt;property name="DamageBonus.Msandbag" value="1"/&gt;</t>
   </si>
 </sst>
 </file>
@@ -449,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -468,19 +486,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -488,16 +506,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -505,33 +523,33 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -539,13 +557,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" s="2">
         <v>5</v>
@@ -556,19 +574,19 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -579,16 +597,16 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>5</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -596,16 +614,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -616,30 +634,30 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
         <v>3</v>
-      </c>
-      <c r="E9" s="2">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C10" s="2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E10" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -647,16 +665,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -664,16 +682,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -681,38 +699,72 @@
         <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2">
         <v>5</v>
       </c>
       <c r="E13" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>10</v>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
